--- a/public/group_jcic.xlsx
+++ b/public/group_jcic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>中国旅行社名</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>签证种类</t>
-  </si>
-  <si>
-    <t>※个人，团体，三年，五年</t>
   </si>
   <si>
     <t>日本入境日期</t>
@@ -880,7 +877,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -891,7 +888,7 @@
   <dimension ref="A2:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,18 +904,18 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -942,15 +939,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="15">
         <v>42348</v>
@@ -958,7 +953,7 @@
     </row>
     <row r="8" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="15">
         <v>42363</v>
@@ -969,31 +964,31 @@
     </row>
     <row r="12" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1001,25 +996,25 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="D14" s="18">
         <v>29441</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1492,18 +1487,18 @@
     </row>
     <row r="56" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="D57" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1512,10 +1507,10 @@
         <v>42348</v>
       </c>
       <c r="C58" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1524,10 +1519,10 @@
         <v>42349</v>
       </c>
       <c r="C59" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -1764,33 +1759,33 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"个人,团体,三年多次,五年多次"</formula1>
+      <formula1>"团体"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1814,74 +1809,74 @@
     <row r="2" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/public/group_jcic.xlsx
+++ b/public/group_jcic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="540" windowWidth="14112" windowHeight="10068"/>
+    <workbookView xWindow="228" yWindow="540" windowWidth="14112" windowHeight="10068" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>宿  泊  先</t>
   </si>
   <si>
-    <t>NH292 (1000-1445) 便にて成⽥空港へ。到着後、ホテルへ。</t>
-  </si>
-  <si>
     <t>〒106-0032 東京都港区六本木7丁目 18-11 国際ホテル</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>团体</t>
+  </si>
+  <si>
+    <t>NH292 (1000-1445) 便にて成田空港へ。到着後、ホテルへ。</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G986"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1090,7 +1090,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1133,10 +1133,10 @@
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1203,7 +1203,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1213,10 +1213,10 @@
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1226,10 +1226,10 @@
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1239,10 +1239,10 @@
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1252,10 +1252,10 @@
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1265,10 +1265,10 @@
     <row r="23" spans="1:7" ht="28.2" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1278,10 +1278,10 @@
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -14590,8 +14590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -14642,10 +14642,10 @@
         <v>42348</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="44.25" customHeight="1">
@@ -14654,10 +14654,10 @@
         <v>42349</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="44.25" customHeight="1">
@@ -14925,7 +14925,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">

--- a/public/group_jcic.xlsx
+++ b/public/group_jcic.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="540" windowWidth="14112" windowHeight="10068" activeTab="2"/>
+    <workbookView xWindow="220" yWindow="540" windowWidth="14120" windowHeight="10060"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
     <sheet name="査証人名簿" sheetId="2" r:id="rId2"/>
     <sheet name="滞在予定表" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="130407"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -198,14 +203,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
@@ -220,57 +225,65 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Ms mincho"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Ms mincho"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Ms mincho"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Ms mincho"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
     </font>
     <font>
@@ -289,34 +302,40 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF969696"/>
+      <color indexed="55"/>
       <name val="宋体"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color indexed="12"/>
       <name val="宋体"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -439,29 +458,29 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -513,7 +532,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FF969696"/>
@@ -553,7 +572,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -597,7 +616,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -646,7 +665,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -690,7 +709,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -999,22 +1018,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G986"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1103,27 +1122,27 @@
         <v>13</v>
       </c>
       <c r="C8" s="25">
-        <v>42348</v>
+        <v>43079</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="16.8" customHeight="1">
+    <row r="9" spans="1:7" ht="16.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="25">
-        <v>42363</v>
+        <v>43094</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="17.399999999999999" customHeight="1">
+    <row r="10" spans="1:7" ht="17.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1262,7 +1281,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="28.2" customHeight="1">
+    <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
         <v>48</v>
@@ -8021,32 +8040,37 @@
       <c r="G986" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="22"/>
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H1025"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="5.69921875" customWidth="1"/>
-    <col min="5" max="5" width="9.69921875" customWidth="1"/>
-    <col min="6" max="6" width="10.296875" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="9" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8075,7 +8099,7 @@
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
       <c r="A3" s="39" t="str">
         <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
-        <v>（2015年12月10日 〜 2015年12月25日）</v>
+        <v>（2017年12月10日 〜 2017年12月25日）</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -8707,7 +8731,7 @@
       <c r="G49" s="37"/>
       <c r="H49" s="37"/>
     </row>
-    <row r="50" spans="1:8" ht="73.2" customHeight="1">
+    <row r="50" spans="1:8" ht="73.25" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -14580,25 +14604,30 @@
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
+  <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="30.69921875" customWidth="1"/>
-    <col min="3" max="3" width="31.796875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
     <col min="4" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14612,7 +14641,7 @@
     <row r="2" spans="1:3" ht="21" customHeight="1">
       <c r="A2" s="44" t="str">
         <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
-        <v>（2015年12月10日 〜 2015年12月25日）</v>
+        <v>（2017年12月10日 〜 2017年12月25日）</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -14639,7 +14668,7 @@
     <row r="5" spans="1:3" ht="42" customHeight="1">
       <c r="A5" s="16">
         <f>IF(AND(LEN(基本信息!C8),LEN(基本信息!C8)),基本信息!C8,"")</f>
-        <v>42348</v>
+        <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>55</v>
@@ -14651,7 +14680,7 @@
     <row r="6" spans="1:3" ht="44.25" customHeight="1">
       <c r="A6" s="16">
         <f>IF(LEN(A5),IF(A5+1&lt;=基本信息!C9,A5+1,""),"")</f>
-        <v>42349</v>
+        <v>43080</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>36</v>
@@ -14663,7 +14692,7 @@
     <row r="7" spans="1:3" ht="44.25" customHeight="1">
       <c r="A7" s="16">
         <f>IF(LEN(A5),IF(A5+2&lt;=基本信息!C9,A5+2,""),"")</f>
-        <v>42350</v>
+        <v>43081</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -14671,7 +14700,7 @@
     <row r="8" spans="1:3" ht="44.25" customHeight="1">
       <c r="A8" s="16">
         <f>IF(LEN(A5),IF(A5+3&lt;=基本信息!C9,A5+3,""),"")</f>
-        <v>42351</v>
+        <v>43082</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -14679,7 +14708,7 @@
     <row r="9" spans="1:3" ht="42" customHeight="1">
       <c r="A9" s="16">
         <f>IF(LEN(A5),IF(A5+4&lt;=基本信息!C9,A5+4,""),"")</f>
-        <v>42352</v>
+        <v>43083</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -14687,7 +14716,7 @@
     <row r="10" spans="1:3" ht="42" customHeight="1">
       <c r="A10" s="16">
         <f>IF(LEN(A5),IF(A5+5&lt;=基本信息!C9,A5+5,""),"")</f>
-        <v>42353</v>
+        <v>43084</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -14695,7 +14724,7 @@
     <row r="11" spans="1:3" ht="46.5" customHeight="1">
       <c r="A11" s="16">
         <f>IF(LEN(A5),IF(A5+6&lt;=基本信息!C9,A5+6,""),"")</f>
-        <v>42354</v>
+        <v>43085</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -14703,7 +14732,7 @@
     <row r="12" spans="1:3" ht="47.25" customHeight="1">
       <c r="A12" s="16">
         <f>IF(LEN(A5),IF(A5+7&lt;=基本信息!C9,A5+7,""),"")</f>
-        <v>42355</v>
+        <v>43086</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -14711,7 +14740,7 @@
     <row r="13" spans="1:3" ht="41.25" customHeight="1">
       <c r="A13" s="16">
         <f>IF(LEN(A5),IF(A5+8&lt;=基本信息!C9,A5+8,""),"")</f>
-        <v>42356</v>
+        <v>43087</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -14719,7 +14748,7 @@
     <row r="14" spans="1:3" ht="42" customHeight="1">
       <c r="A14" s="16">
         <f>IF(LEN(A5),IF(A5+9&lt;=基本信息!C9,A5+9,""),"")</f>
-        <v>42357</v>
+        <v>43088</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -14727,7 +14756,7 @@
     <row r="15" spans="1:3" ht="42" customHeight="1">
       <c r="A15" s="16">
         <f>IF(LEN(A5),IF(A5+10&lt;=基本信息!C9,A5+10,""),"")</f>
-        <v>42358</v>
+        <v>43089</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -14735,7 +14764,7 @@
     <row r="16" spans="1:3" ht="39.75" customHeight="1">
       <c r="A16" s="16">
         <f>IF(LEN(A5),IF(A5+11&lt;=基本信息!C9,A5+11,""),"")</f>
-        <v>42359</v>
+        <v>43090</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -14743,7 +14772,7 @@
     <row r="17" spans="1:3" ht="39.75" customHeight="1">
       <c r="A17" s="16">
         <f>IF(LEN(A5),IF(A5+12&lt;=基本信息!C9,A5+12,""),"")</f>
-        <v>42360</v>
+        <v>43091</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -14751,7 +14780,7 @@
     <row r="18" spans="1:3" ht="39.75" customHeight="1">
       <c r="A18" s="16">
         <f>IF(LEN(A5),IF(A5+13&lt;=基本信息!C9,A5+13,""),"")</f>
-        <v>42361</v>
+        <v>43092</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -14759,7 +14788,7 @@
     <row r="19" spans="1:3" ht="40.5" customHeight="1">
       <c r="A19" s="16">
         <f>IF(LEN(A5),IF(A5+14&lt;=基本信息!C9,A5+14,""),"")</f>
-        <v>42362</v>
+        <v>43093</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -14767,7 +14796,7 @@
     <row r="20" spans="1:3" ht="39.75" customHeight="1">
       <c r="A20" s="16">
         <f>IF(LEN(A5),IF(A5+15&lt;=基本信息!C9,A5+15,""),"")</f>
-        <v>42363</v>
+        <v>43094</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -14876,7 +14905,7 @@
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
     </row>
-    <row r="34" spans="1:3" ht="39.6" customHeight="1">
+    <row r="34" spans="1:3" ht="39.5" customHeight="1">
       <c r="A34" s="19" t="str">
         <f>IF(LEN(A5),IF(A5+29&lt;=基本信息!C9,A5+29,""),"")</f>
         <v/>
@@ -14884,7 +14913,7 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
     </row>
-    <row r="35" spans="1:3" ht="40.799999999999997" customHeight="1">
+    <row r="35" spans="1:3" ht="40.75" customHeight="1">
       <c r="A35" s="20" t="str">
         <f>IF(LEN(A5),IF(A5+30&lt;=基本信息!C9,A5+30,""),"")</f>
         <v/>
@@ -14921,7 +14950,7 @@
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
     </row>
-    <row r="40" spans="1:3" ht="83.4" customHeight="1">
+    <row r="40" spans="1:3" ht="83.5" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="28" t="s">
@@ -19743,6 +19772,7 @@
       <c r="C1003" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
@@ -19751,8 +19781,13 @@
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
+  <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/public/group_jcic.xlsx
+++ b/public/group_jcic.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>日本旅行社名</t>
   </si>
@@ -146,12 +146,6 @@
 7-18-5 ソフイアビル 212号室
 担当者：東木慶新
 電話：03-3470-6851</t>
-  </si>
-  <si>
-    <t>http://123.56.136.55/code</t>
-  </si>
-  <si>
-    <t>※编号请查询</t>
   </si>
   <si>
     <t>性别</t>
@@ -572,7 +566,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -616,7 +610,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -665,7 +659,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -709,7 +703,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1022,7 +1016,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1109,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1151,12 +1145,8 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>39</v>
-      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1222,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1232,10 +1222,10 @@
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1245,10 +1235,10 @@
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1258,10 +1248,10 @@
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1271,10 +1261,10 @@
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1284,10 +1274,10 @@
     <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1297,10 +1287,10 @@
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8041,9 +8031,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="22"/>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -14671,7 +14658,7 @@
         <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>35</v>
@@ -19772,7 +19759,6 @@
       <c r="C1003" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>

--- a/public/group_jcic.xlsx
+++ b/public/group_jcic.xlsx
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -8057,7 +8057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H1025"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -19772,7 +19772,6 @@
       <c r="C1003" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>

--- a/public/group_jcic.xlsx
+++ b/public/group_jcic.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>日本旅行社名</t>
   </si>
@@ -146,6 +146,12 @@
 7-18-5 ソフイアビル 212号室
 担当者：東木慶新
 電話：03-3470-6851</t>
+  </si>
+  <si>
+    <t>http://123.56.136.55/code</t>
+  </si>
+  <si>
+    <t>※编号请查询</t>
   </si>
   <si>
     <t>性别</t>
@@ -566,7 +572,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -610,7 +616,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -659,7 +665,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -703,7 +709,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1016,7 +1022,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1103,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1145,8 +1151,12 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1212,7 +1222,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1222,10 +1232,10 @@
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1235,10 +1245,10 @@
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1248,10 +1258,10 @@
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1261,10 +1271,10 @@
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1274,10 +1284,10 @@
     <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1287,10 +1297,10 @@
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8031,6 +8041,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="22"/>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -8044,7 +8057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H1025"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -14658,7 +14671,7 @@
         <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>35</v>

--- a/public/group_jcic.xlsx
+++ b/public/group_jcic.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>日本旅行社名</t>
   </si>
@@ -146,12 +146,6 @@
 7-18-5 ソフイアビル 212号室
 担当者：東木慶新
 電話：03-3470-6851</t>
-  </si>
-  <si>
-    <t>http://123.56.136.55/code</t>
-  </si>
-  <si>
-    <t>※编号请查询</t>
   </si>
   <si>
     <t>性别</t>
@@ -572,7 +566,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -616,7 +610,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -665,7 +659,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -709,7 +703,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1022,7 +1016,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1109,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1151,12 +1145,8 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>39</v>
-      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1222,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1232,10 +1222,10 @@
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1245,10 +1235,10 @@
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1258,10 +1248,10 @@
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1271,10 +1261,10 @@
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1284,10 +1274,10 @@
     <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1297,10 +1287,10 @@
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8041,9 +8031,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="22"/>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -14671,7 +14658,7 @@
         <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>35</v>
